--- a/Model_Tests.xlsx
+++ b/Model_Tests.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Retraint\Desktop\GDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6694CCF9-5BE6-4B1D-818B-28FF9200FAC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB21AFA-6726-4AE6-92E4-D4C3FD512756}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2F8AA23F-21BA-4BA2-9C01-0E2FDC55F1DE}"/>
+    <workbookView xWindow="5760" yWindow="2340" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{2F8AA23F-21BA-4BA2-9C01-0E2FDC55F1DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>CMU</t>
   </si>
@@ -39,9 +40,6 @@
     <t>MobileNetV2 Small</t>
   </si>
   <si>
-    <t>Model</t>
-  </si>
-  <si>
     <t>Resolution</t>
   </si>
   <si>
@@ -91,13 +89,52 @@
   </si>
   <si>
     <t>Nvidia GTX 2070</t>
+  </si>
+  <si>
+    <t>Models</t>
+  </si>
+  <si>
+    <t>5-6 FPS</t>
+  </si>
+  <si>
+    <t>25-27 FPS</t>
+  </si>
+  <si>
+    <t>19-23 FPS</t>
+  </si>
+  <si>
+    <t>27-29 FPS</t>
+  </si>
+  <si>
+    <t>55-60 FPS</t>
+  </si>
+  <si>
+    <t>50-55 FPS</t>
+  </si>
+  <si>
+    <t>65-70 FPS</t>
+  </si>
+  <si>
+    <t>25-30 FPS</t>
+  </si>
+  <si>
+    <t>100 FPS</t>
+  </si>
+  <si>
+    <t>80-90 FPS</t>
+  </si>
+  <si>
+    <t>80-85 FPS</t>
+  </si>
+  <si>
+    <t>12-15 FPS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,13 +173,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -170,7 +200,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -258,54 +288,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -314,7 +343,57 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -631,232 +710,287 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{439E0D34-4AF2-403B-8ADF-585D9AEA9EB5}">
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView zoomScale="55" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="M1" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-    </row>
-    <row r="2" spans="1:22" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="21"/>
+    </row>
+    <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="24"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="5"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="28"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="9"/>
-      <c r="M3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="N3" s="7"/>
-      <c r="O3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="V3" s="9"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="12" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="22"/>
-      <c r="M4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="N4" s="11"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="13"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="12" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="22"/>
-      <c r="M5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="N5" s="11"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="13"/>
-    </row>
-    <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="16" t="s">
+      <c r="F6" s="11"/>
+      <c r="G6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="16" t="s">
+      <c r="H6" s="11"/>
+      <c r="I6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="26"/>
-      <c r="M6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="15"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="17"/>
+      <c r="J6" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
+  <mergeCells count="10">
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="A3:B3"/>
     <mergeCell ref="A1:J1"/>
-    <mergeCell ref="M1:V1"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="O2:V2"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="A3:B3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7223946D-531B-4939-95AF-44E5BB6DA938}">
+  <dimension ref="B1:K7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="62" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="31"/>
+    </row>
+    <row r="3" spans="2:11" ht="21" x14ac:dyDescent="0.4">
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="29"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="28"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
